--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.206</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.314</v>
+        <v>15.034</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.123</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.92</v>
+        <v>17.392</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.269</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.977</v>
+        <v>8.031000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.58182260411951</v>
+        <v>13.51613905690175</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.25057131331057</v>
+        <v>15.49412655575657</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.5110996401464</v>
+        <v>21.50659842244244</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.55329445645108</v>
+        <v>0.5607248439111494</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.61864872880969</v>
+        <v>14.17068517154741</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.12285118032715</v>
+        <v>16.05522216241537</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.20369739891403</v>
+        <v>1.593359597070449</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.50110732673109</v>
+        <v>23.92441812937782</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.74818607164151</v>
+        <v>28.81653893487277</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.05010030765528</v>
+        <v>17.30112865919125</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.68206756781625</v>
+        <v>23.86975541256493</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.19660603676225</v>
+        <v>26.38466850018455</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.68437875967719</v>
+        <v>9.840846387722369</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.70644577325183</v>
+        <v>11.98862528954362</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.86605915719551</v>
+        <v>21.6398414805654</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.95785799815375</v>
+        <v>15.29953561667341</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.71855693066787</v>
+        <v>21.964325489799</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.03130067596132</v>
+        <v>27.82810469933432</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.81736373461486</v>
+        <v>2.12914301741711</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.98411280863176</v>
+        <v>10.13940041073781</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.54230024246579</v>
+        <v>15.28146864674244</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.52581499300709</v>
+        <v>-1.905345700709514</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.91592999533687</v>
+        <v>20.40764260744237</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.58181135095336</v>
+        <v>12.94614908388036</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.25057323522141</v>
+        <v>24.35145133190392</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.51110748269453</v>
+        <v>27.81961286409427</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18.5532884723501</v>
+        <v>2.313595940892331</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.61865654092869</v>
+        <v>30.00790003060738</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.12286530100425</v>
+        <v>30.76483406184494</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.20369477216153</v>
+        <v>6.818822630958525</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.50111745227362</v>
+        <v>42.79868307645609</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.74820207744154</v>
+        <v>44.94438281989252</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.05011145424054</v>
+        <v>44.87187894943642</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.68208319154074</v>
+        <v>50.01776997156054</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.19662448703276</v>
+        <v>52.06299099313347</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.68438066973959</v>
+        <v>20.83567262663263</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.70646025189554</v>
+        <v>41.40964743480436</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.8660793276655</v>
+        <v>46.31798186328206</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.95785016587455</v>
+        <v>16.26718077126967</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.71856238064958</v>
+        <v>33.34189202469284</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.03131211557136</v>
+        <v>37.72924692956141</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>20.81736100366737</v>
+        <v>7.061966194027523</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.98412399415715</v>
+        <v>30.39000842003282</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.54231780688674</v>
+        <v>35.55684842449662</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.52581569304288</v>
+        <v>7.312202921083387</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>33.91594355758991</v>
+        <v>44.44184091264245</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.58231085052816</v>
+        <v>8.667899490263611</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.25106550206832</v>
+        <v>21.16431907866741</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.51159493429554</v>
+        <v>26.8264646420281</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.55380149165342</v>
+        <v>0.1846160308556115</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.61916201670597</v>
+        <v>29.04698534795091</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.12336557543062</v>
+        <v>32.57970340767625</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.20420507764664</v>
+        <v>5.98494669780175</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.50162083239823</v>
+        <v>43.6449324141071</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.74870063567781</v>
+        <v>48.24274148907503</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.05061623558704</v>
+        <v>45.41681583325888</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.68258453850611</v>
+        <v>49.40590891698892</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.19712372566377</v>
+        <v>54.29377742950064</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.68488891204841</v>
+        <v>14.71213664763508</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.70696176174386</v>
+        <v>39.12198383336309</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.86657607034623</v>
+        <v>46.13994777769432</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.95835115331898</v>
+        <v>11.34590509124235</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.71905604037397</v>
+        <v>29.58462034846812</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.03180092975821</v>
+        <v>36.50493906353967</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.81787578159169</v>
+        <v>4.094850958362375</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.98463112281021</v>
+        <v>28.73262964289021</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.54281970259916</v>
+        <v>37.09025660598797</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.52632771594363</v>
+        <v>5.887718631700668</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.9164485577343</v>
+        <v>44.79599620752549</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.58250760730913</v>
+        <v>4.126150016065342</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.25127315727682</v>
+        <v>15.2138608761043</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.51180388690838</v>
+        <v>24.05118501650438</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.55399512396235</v>
+        <v>0.8722250501528244</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.61936689428394</v>
+        <v>25.61509420806067</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32.12357190390237</v>
+        <v>31.95837831423339</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.20440439268171</v>
+        <v>2.627660136131912</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.50183053577516</v>
+        <v>36.41444897578072</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.74891164398798</v>
+        <v>44.93279488170577</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.05083288810512</v>
+        <v>31.55004455204599</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.68280554576673</v>
+        <v>36.82651061721393</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.19734526873488</v>
+        <v>45.39399034065164</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.68509867132363</v>
+        <v>8.470645142733165</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.70718136144421</v>
+        <v>28.32054199075455</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.86679693979926</v>
+        <v>41.36360519131384</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.95855162137138</v>
+        <v>8.699569697146675</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.7192675297634</v>
+        <v>25.10164872647082</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.03201377715492</v>
+        <v>34.45710482859278</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.81807308333384</v>
+        <v>4.893488702020225</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.98483980197291</v>
+        <v>24.81831889385478</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.54302989662823</v>
+        <v>35.19283524769205</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.52653077404282</v>
+        <v>2.310622201891906</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.91666212509195</v>
+        <v>36.77541748593643</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.21311538744793</v>
+        <v>29.81421427793646</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.57206079046558</v>
+        <v>15.76077022162957</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.26156364930317</v>
+        <v>25.74545966147457</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.80345616130209</v>
+        <v>31.60210834568136</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.18237319587382</v>
+        <v>5.53177668512669</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>39.31091002789724</v>
+        <v>18.19398767043203</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.50897869968813</v>
+        <v>26.05519061401819</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.01784779765463</v>
+        <v>10.37558609345729</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.85202760881093</v>
+        <v>18.75082307001879</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.16621747044014</v>
+        <v>29.26793838006677</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.17578340894598</v>
+        <v>-3.967574487801212</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.42189342811785</v>
+        <v>8.884710209307602</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.98401032273249</v>
+        <v>15.98082270891658</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.88881456495062</v>
+        <v>-6.490855722342527</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.35500829680099</v>
+        <v>23.11559767308768</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.65439933696129</v>
+        <v>36.45883445793174</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.21030249245593</v>
+        <v>27.34522021036642</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.92240540407351</v>
+        <v>39.11496222141193</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.45633155004675</v>
+        <v>47.97389718464612</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>37.75909951500658</v>
+        <v>0.7798143318259498</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>46.95218765880384</v>
+        <v>21.03568447304517</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.15011350875924</v>
+        <v>35.05779669258368</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.21313489529707</v>
+        <v>52.28226019156403</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.57207540500229</v>
+        <v>47.05372310625964</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.26158279496755</v>
+        <v>55.0604519866213</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>41.80347817900443</v>
+        <v>60.45843162394996</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.18237860148193</v>
+        <v>20.54835980679553</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.31092812609636</v>
+        <v>53.13432184312549</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.50900254013169</v>
+        <v>57.46342776852515</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.01785680297044</v>
+        <v>18.72609709835647</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.85205005624427</v>
+        <v>38.66278165674404</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.16624585123671</v>
+        <v>46.33344761783414</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.1757978382871</v>
+        <v>9.819736317428838</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.42192194479073</v>
+        <v>39.63087038185142</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.98404515967628</v>
+        <v>45.39131623759525</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.88883248385595</v>
+        <v>11.61260136264804</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.35503923869359</v>
+        <v>57.37971037070841</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.65443616902142</v>
+        <v>67.54192322555539</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.21033473408428</v>
+        <v>71.0860725428123</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.92244223447903</v>
+        <v>79.8421202821155</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49.45637121707901</v>
+        <v>87.46220878730139</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.75912237300483</v>
+        <v>27.02044985627339</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.95222335194627</v>
+        <v>68.49167339122499</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.15015489229521</v>
+        <v>77.57624541821028</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.21363504455736</v>
+        <v>55.4500421334823</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.57258175936398</v>
+        <v>45.96487797291394</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>40.26208563831575</v>
+        <v>52.63588353341638</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.8039788874918</v>
+        <v>61.23545490579403</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.1828884116744</v>
+        <v>13.78865128603625</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.31143109125267</v>
+        <v>50.55078080400497</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>42.50950072164902</v>
+        <v>57.32807562164706</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.01834901405954</v>
+        <v>13.90411395172419</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.85253484337774</v>
+        <v>35.58371388373141</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.1667257681801</v>
+        <v>45.52289704818639</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.17630348357157</v>
+        <v>7.176464473746652</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.4224198351193</v>
+        <v>38.99095339561813</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>41.98453779195162</v>
+        <v>47.6943370449481</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.88933538086675</v>
+        <v>10.59218124546664</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>41.35553501147783</v>
+        <v>58.74341425450982</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.65492706961898</v>
+        <v>71.4057483874499</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.21083155446436</v>
+        <v>71.81988570731434</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>47.92293550141183</v>
+        <v>79.15163024519572</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>49.45686234771949</v>
+        <v>89.91139325749324</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.75962274754272</v>
+        <v>21.13230260972518</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>46.95271678948008</v>
+        <v>67.43732742170434</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.15064352413344</v>
+        <v>78.82093593006562</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.21384997616781</v>
+        <v>50.54425821102197</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.57280250715111</v>
+        <v>30.08599954917989</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.26231082226152</v>
+        <v>38.39410787226015</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.8042046271572</v>
+        <v>51.01196690223682</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.18310216284658</v>
+        <v>7.21813143555082</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.31165482225389</v>
+        <v>38.89502214000956</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.50972576981846</v>
+        <v>50.65221568574347</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.01854967697232</v>
+        <v>11.73471990914331</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.85274652853415</v>
+        <v>31.68141400529217</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.16693887470211</v>
+        <v>45.26092545971207</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.17650137248343</v>
+        <v>7.552809120012117</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.42262910421729</v>
+        <v>34.466464844309</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.98474864907568</v>
+        <v>46.42130298270121</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.88953898648735</v>
+        <v>6.737535777756566</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.35574913227646</v>
+        <v>50.45241123607465</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.65514262043611</v>
+        <v>67.58314694664165</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.21105306351253</v>
+        <v>55.0562588106296</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.92316143449003</v>
+        <v>65.16941351066268</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.45708885334993</v>
+        <v>81.01462633419428</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.75983730087384</v>
+        <v>12.52111734152007</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.95294131760625</v>
+        <v>53.86838665237437</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50.15086942479418</v>
+        <v>71.78772484147945</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.1658730990477</v>
+        <v>17.16019015275782</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.87813462152895</v>
+        <v>22.10193160731101</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.14176056641558</v>
+        <v>29.34783119378256</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.98868433982614</v>
+        <v>5.174340575242983</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.09931744248617</v>
+        <v>22.3673554963327</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.60722556342099</v>
+        <v>24.56935609289861</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.63138744160074</v>
+        <v>10.31398413013912</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>23.97126133281461</v>
+        <v>35.35450401693134</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.22134691877959</v>
+        <v>40.97808328786985</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.45384433917314</v>
+        <v>29.09169694802117</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.09660939165433</v>
+        <v>35.50366554306419</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.61410518804379</v>
+        <v>35.93161525345167</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.06219454510558</v>
+        <v>17.86381186054505</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.1302732766653</v>
+        <v>22.55062356267144</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.2902479046671</v>
+        <v>32.93933692573242</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>14.68287686981496</v>
+        <v>14.391032166739</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.49083833340489</v>
+        <v>24.87660887090937</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.80838502166929</v>
+        <v>31.24573455667096</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.3991307204979</v>
+        <v>1.014171342144156</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.61502074015448</v>
+        <v>14.08950980016934</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.17874720083389</v>
+        <v>18.80948929155068</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.099523084706</v>
+        <v>2.396398217635809</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.53567993494014</v>
+        <v>28.65021515241944</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>12.16584886649454</v>
+        <v>12.50339586700486</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.87812357563506</v>
+        <v>26.43576550717632</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.14175547257307</v>
+        <v>31.12708828135706</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.98866525578325</v>
+        <v>2.72237679343414</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.09931216529187</v>
+        <v>33.55496996403605</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.6072266301134</v>
+        <v>34.51797942053486</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.63137164821432</v>
+        <v>10.82806141866192</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.97125830240009</v>
+        <v>48.98093306996955</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.221349800445</v>
+        <v>51.84050379976512</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.45384231960431</v>
+        <v>50.74124036957124</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.09661184700664</v>
+        <v>55.57690327501641</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.61411047350596</v>
+        <v>55.6037245664466</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.06218327937581</v>
+        <v>23.02966218928745</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.13027460154438</v>
+        <v>45.64716123186494</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>32.290254938989</v>
+        <v>51.01748246300602</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.68285627679842</v>
+        <v>11.96276395470361</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.49083103766785</v>
+        <v>32.41985938266001</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.80838375068545</v>
+        <v>37.30222276482019</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.3991151139952</v>
+        <v>2.409942102743518</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.61501906433357</v>
+        <v>30.36925454880452</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.17875194326288</v>
+        <v>34.98801209637645</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>17.09951084238705</v>
+        <v>7.551990609570115</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.53568056886884</v>
+        <v>48.08349281607696</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>12.1663570530985</v>
+        <v>6.958917724513075</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.87862452493203</v>
+        <v>21.75831318115249</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.14225160732465</v>
+        <v>28.64628772383248</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.98918722685523</v>
+        <v>-0.8658315979037319</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.09982658785687</v>
+        <v>30.92406516772403</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.60773585164679</v>
+        <v>34.6166263741874</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.63189086821197</v>
+        <v>8.405184970265939</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.97177059306872</v>
+        <v>47.97976742047641</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.22185727038071</v>
+        <v>53.29324120856361</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.45435597610111</v>
+        <v>49.5577475384589</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.09712206592299</v>
+        <v>53.19399488778689</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.61461859595106</v>
+        <v>56.05658055671853</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.06270040122167</v>
+        <v>15.28459034276498</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.13078497815594</v>
+        <v>41.47734908438306</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.29076055652254</v>
+        <v>48.86917902401026</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.68336589366852</v>
+        <v>5.604173866992543</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.49133331886784</v>
+        <v>26.99225859210563</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.80888118477256</v>
+        <v>34.41049816841183</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>13.39963877941736</v>
+        <v>-2.179325111057178</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.61553507205331</v>
+        <v>26.86964163378369</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.17926271585644</v>
+        <v>34.62944321929163</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.10003171708927</v>
+        <v>4.363647602994352</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.53619441367513</v>
+        <v>46.40433086365039</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12.16655015797392</v>
+        <v>5.203390325137068</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.87882864288572</v>
+        <v>18.71713062337114</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.14245698973071</v>
+        <v>28.78062692982954</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10.98937700434473</v>
+        <v>2.175149055409609</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.1000277314054</v>
+        <v>29.96409509016766</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.60793841060706</v>
+        <v>36.43929847980777</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.63208636803712</v>
+        <v>7.764873228616811</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>23.97197659397347</v>
+        <v>43.62496768334486</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.22206454315139</v>
+        <v>52.84167504599617</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.45456873245349</v>
+        <v>39.24636743959979</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.09733920971205</v>
+        <v>44.22764128700311</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.61483627901624</v>
+        <v>50.63374049391456</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.06290620217863</v>
+        <v>12.59813521193991</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.13100072688052</v>
+        <v>34.28717518381325</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.29097755156075</v>
+        <v>47.81732824085458</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>14.68356285606347</v>
+        <v>4.211182570538828</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.4915414232103</v>
+        <v>23.86687820226831</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.8090906140276</v>
+        <v>33.699426760591</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.39983237953967</v>
+        <v>-0.547388086772397</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.61574017648227</v>
+        <v>23.87627288257855</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.17946929946746</v>
+        <v>33.61112092083391</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.10023111267884</v>
+        <v>1.982306445588822</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.53640443687539</v>
+        <v>39.71983760376486</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.837580033903</v>
+        <v>37.81531221006986</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.12786602480096</v>
+        <v>23.0532875673195</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.82910651716288</v>
+        <v>32.69795849807454</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.37470872032558</v>
+        <v>34.71938511622415</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.71032393934109</v>
+        <v>9.579797728088071</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.88793410010182</v>
+        <v>24.60530405876196</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.0881310999868</v>
+        <v>32.91967594242385</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.17463997151559</v>
+        <v>11.85708863848729</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.06150752534755</v>
+        <v>24.89603381557913</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.37889387719711</v>
+        <v>35.30225141010183</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.18818246619475</v>
+        <v>-4.056883170580701</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.48905547591165</v>
+        <v>14.51048115404123</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>35.05511608616808</v>
+        <v>20.50583009269434</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.90065224301539</v>
+        <v>-1.011691006684767</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.41819154851861</v>
+        <v>33.33311179832566</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.72076017756733</v>
+        <v>45.89732355797707</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.21299613941881</v>
+        <v>35.03600268289804</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.93795519129992</v>
+        <v>47.06338554794414</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>42.47443569192812</v>
+        <v>52.59251292607715</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.7299152884328</v>
+        <v>6.774277813726773</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.97657371177849</v>
+        <v>31.34433091781935</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.1750754671889</v>
+        <v>43.98453172980129</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.83758664896674</v>
+        <v>55.65802101384014</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.12786770371628</v>
+        <v>49.06512328347287</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>32.8291127257249</v>
+        <v>56.60580594462903</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.37471780589546</v>
+        <v>58.22274337417224</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.71031639686136</v>
+        <v>19.36492511735657</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.88793927497357</v>
+        <v>53.82621630255841</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.08814203841715</v>
+        <v>58.32446239881432</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.17463691213582</v>
+        <v>16.30103328134664</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.06151793199146</v>
+        <v>40.46702275428831</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.37891024871173</v>
+        <v>47.98568337760196</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.18818472570819</v>
+        <v>5.726405084576388</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.48907184619449</v>
+        <v>40.82118111884444</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.05513881246418</v>
+        <v>45.32116279598822</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.90065793259848</v>
+        <v>12.55522875560536</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.41821028380456</v>
+        <v>62.52197527925696</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.72078483519473</v>
+        <v>71.85601388510571</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.21301617370521</v>
+        <v>72.97942748353745</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.93797981514272</v>
+        <v>81.93423065604782</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>42.47446315535164</v>
+        <v>86.27472069666061</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.72992592104543</v>
+        <v>27.3553972099416</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.97659721245745</v>
+        <v>72.6680345890048</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>43.17510467605002</v>
+        <v>80.01952384468248</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.838095641722</v>
+        <v>56.79375173988066</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.12838286467365</v>
+        <v>46.07817865346505</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.82962437175914</v>
+        <v>52.24650442531166</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.37522732776036</v>
+        <v>57.05412631284622</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.71083501872581</v>
+        <v>10.81288952806733</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.88845103662091</v>
+        <v>49.18202953062385</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.08864902201889</v>
+        <v>56.03906807581569</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.17513723791967</v>
+        <v>10.22938776996947</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.06201081932406</v>
+        <v>35.90503162807062</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.3793982656744</v>
+        <v>45.6916380616166</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.18869874982524</v>
+        <v>1.675190994738731</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.48957810009119</v>
+        <v>38.5531489919494</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.05563980752313</v>
+        <v>45.94163087702321</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.90116916203397</v>
+        <v>9.988001248771187</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.4187143754081</v>
+        <v>62.06872980490701</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.72128405484811</v>
+        <v>73.9011532652263</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.21352128082697</v>
+        <v>72.03248766978794</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.93848136266963</v>
+        <v>79.54260385567196</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.47496257889028</v>
+        <v>87.00918174281145</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.7304345926257</v>
+        <v>19.90835795392337</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>39.97709892597798</v>
+        <v>69.79357165889959</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.17560159113063</v>
+        <v>79.34829787301669</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.83830699595702</v>
+        <v>53.18793798530115</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.12859987804585</v>
+        <v>32.23414561227332</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>32.82984585555854</v>
+        <v>40.06615455410565</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.37544937103596</v>
+        <v>48.74136015368231</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.71104497118184</v>
+        <v>6.331464182312889</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>31.8886710812268</v>
+        <v>39.6296837888728</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.08887036040132</v>
+        <v>51.5703225400338</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.17533472131128</v>
+        <v>10.57739255645999</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.06221944924597</v>
+        <v>34.634380280301</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.37960828373609</v>
+        <v>48.04996968648675</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.18889325392408</v>
+        <v>4.187270752131614</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.48978411501182</v>
+        <v>36.26465686239203</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.05584737472834</v>
+        <v>46.87104191138241</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.90136943130375</v>
+        <v>8.64475701613279</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.41892528179197</v>
+        <v>56.4438066885794</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.72149635786047</v>
+        <v>72.7118187888604</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.21373939070943</v>
+        <v>58.67767577890501</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.93870393098805</v>
+        <v>68.95952545833916</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.47518572282785</v>
+        <v>81.35378232714785</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.7306456787619</v>
+        <v>14.71299335838538</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.97732010128409</v>
+        <v>59.67696208939608</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.17582411556633</v>
+        <v>75.91030581415004</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.25128226140457</v>
+        <v>9.448799491091396</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.97843782270635</v>
+        <v>14.87204609127958</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.24361679738523</v>
+        <v>21.16030403075041</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.07671597473234</v>
+        <v>-3.550580666493428</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.2029164719089</v>
+        <v>13.7422398050469</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.71259084835507</v>
+        <v>15.1446677548945</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>14.7231448208476</v>
+        <v>1.311204211370839</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.07736327255968</v>
+        <v>26.93418748960116</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.32907216210392</v>
+        <v>31.5173580902447</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.56675514180786</v>
+        <v>22.67896824018439</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.21503438239035</v>
+        <v>29.35791598638028</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.73343309281339</v>
+        <v>28.21181184240865</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.16462246603754</v>
+        <v>8.991035610156448</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.24658793039168</v>
+        <v>15.18491610123377</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.40823085851446</v>
+        <v>24.48458561607581</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.81090651516138</v>
+        <v>15.00703513460673</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.63404461385133</v>
+        <v>27.06532875535754</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.95309752486855</v>
+        <v>32.38707417619577</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.53020790967475</v>
+        <v>0.7071372102056195</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.76195993220292</v>
+        <v>15.08806972136705</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.32740915640179</v>
+        <v>18.90172888577294</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.23454908200181</v>
+        <v>2.407150578949913</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.68532311186678</v>
+        <v>30.43253317430589</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.25125829270067</v>
+        <v>6.693508239606562</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.97842705850556</v>
+        <v>21.25988499393427</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.24361198793398</v>
+        <v>24.91504114061974</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.07669717110567</v>
+        <v>-3.966668867741216</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.20291149376062</v>
+        <v>27.14785790167057</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.71259221692598</v>
+        <v>27.22247235796809</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.72312931101072</v>
+        <v>3.857811912954222</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.07736054289494</v>
+        <v>42.76572902935996</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.32907534718992</v>
+        <v>44.49948441534269</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.56675343320789</v>
+        <v>46.4800288243375</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.21503715509577</v>
+        <v>51.57935686357453</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.73343869663926</v>
+        <v>49.97975088678069</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.16461149630302</v>
+        <v>16.11148451291288</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.2465895682225</v>
+        <v>40.44382173809547</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.40823820829883</v>
+        <v>44.66188444585308</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.81088623744179</v>
+        <v>14.36598462575626</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.63403765170711</v>
+        <v>36.56065720078647</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.95309659004029</v>
+        <v>40.31261250319324</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>13.5301926355789</v>
+        <v>4.025300765597624</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.76195860789149</v>
+        <v>33.48566599808342</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.32741425303841</v>
+        <v>37.10310396208101</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.23453717543786</v>
+        <v>9.48104829312425</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.68532409918971</v>
+        <v>51.96947376482009</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.25176674147414</v>
+        <v>2.176863459254353</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.97892825936917</v>
+        <v>17.62899330917182</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.2441083695117</v>
+        <v>23.46977769356122</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.07721941579485</v>
+        <v>-6.477096939391284</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.20342617882917</v>
+        <v>25.61945762872901</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.71310169578473</v>
+        <v>28.41137792299196</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.72364879950511</v>
+        <v>2.524994358736055</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.07787309189538</v>
+        <v>42.87717614518436</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.3295830706697</v>
+        <v>47.05299510261662</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.56726734139701</v>
+        <v>46.40758154022711</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.21554762035242</v>
+        <v>50.3036478463973</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>31.73394706360376</v>
+        <v>51.54347066792781</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.16512887760835</v>
+        <v>9.442986192099969</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.2471001944718</v>
+        <v>37.3805347997646</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.40874407108907</v>
+        <v>43.61270523368177</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.81139607587279</v>
+        <v>9.071813001958223</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.63454014354345</v>
+        <v>32.21747328640726</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.9535942300729</v>
+        <v>38.49080502853263</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.53071653356145</v>
+        <v>0.5515787756509702</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.76247483672253</v>
+        <v>31.12727523479996</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.32792524161203</v>
+        <v>37.86983800864112</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.2350582774482</v>
+        <v>7.42031521026033</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.68583816082737</v>
+        <v>51.44151789891288</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>12.25195992835727</v>
+        <v>-0.4434058418075004</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.97913247907364</v>
+        <v>13.61685678991441</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.24431385387472</v>
+        <v>22.697147977443</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.0774092696117</v>
+        <v>-4.351547804738939</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.20362741936776</v>
+        <v>23.61300441116632</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.71330435223694</v>
+        <v>29.2726809073404</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.72384438063769</v>
+        <v>0.9463172485382962</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.07807919314931</v>
+        <v>37.46570309518506</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.32979044417028</v>
+        <v>45.61452151519316</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.56748020440499</v>
+        <v>35.13437198406922</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.21576487804088</v>
+        <v>40.37229083466352</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.73416486145564</v>
+        <v>45.22262202525133</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.16533477428368</v>
+        <v>5.900307786354123</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.24731605697916</v>
+        <v>29.19246140322761</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.40896118069521</v>
+        <v>41.61489029616752</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.81159317078245</v>
+        <v>6.909687725253125</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.63474840033992</v>
+        <v>28.21687524100495</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.95380381201256</v>
+        <v>36.96269585971194</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.53091026095257</v>
+        <v>1.364900886624188</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.76268008928418</v>
+        <v>27.18377382668487</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.32813197388904</v>
+        <v>35.98136102167678</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.23525780562714</v>
+        <v>4.198913091564012</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.68604833584265</v>
+        <v>43.7989650710586</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.98880536063404</v>
+        <v>38.42988317629263</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.2842972999167</v>
+        <v>26.78388808742264</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.9911423482111</v>
+        <v>36.83540960056249</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.53764353489841</v>
+        <v>37.07968255321563</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.85605230580521</v>
+        <v>10.18828357971768</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.04782184583257</v>
+        <v>27.71017612716046</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.24964027589243</v>
+        <v>34.95651995158801</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.30149415299736</v>
+        <v>11.38003172141993</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.20362964839703</v>
+        <v>26.07932102536845</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.52252606107258</v>
+        <v>35.37713802310316</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.31807780159729</v>
+        <v>-5.333231152596991</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.63490914272042</v>
+        <v>14.71497735130493</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.20269999754118</v>
+        <v>19.66650675743117</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.0345083442178</v>
+        <v>-2.102611880178411</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.56675969583408</v>
+        <v>34.10754190792289</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.8709143667413</v>
+        <v>45.4342211508681</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.36850354394643</v>
+        <v>37.75248142962528</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.09914813856298</v>
+        <v>50.31861910605505</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.63641176872617</v>
+        <v>53.88650019139737</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.8746404898149</v>
+        <v>6.228585818580743</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.13555048177728</v>
+        <v>33.48499878244806</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.33566303985319</v>
+        <v>44.88581603452405</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.98881233163619</v>
+        <v>58.28547595125664</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.28429934248831</v>
+        <v>54.84691712761025</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.99114892697418</v>
+        <v>62.78994148156778</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.53765299163639</v>
+        <v>62.57021172833652</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.85604511173498</v>
+        <v>21.82341192941857</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.04782738651001</v>
+        <v>59.00303833794536</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.24965158252097</v>
+        <v>62.36230169114395</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.30149140065006</v>
+        <v>17.79406566001785</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.20364038044316</v>
+        <v>43.79151617077741</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.52254276057374</v>
+        <v>50.11651816768085</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.31808038511679</v>
+        <v>6.576231434276284</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.63492585618027</v>
+        <v>43.35644555107916</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.20272306974092</v>
+        <v>46.71481548606135</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.03451436122245</v>
+        <v>13.58612559743037</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.56677877624985</v>
+        <v>65.61101357587577</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.87093937206669</v>
+        <v>73.61401224388186</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>37.36852393367901</v>
+        <v>77.95130371222959</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>41.09917312449774</v>
+        <v>87.44193039753668</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>42.63643959506976</v>
+        <v>89.76078506882598</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.87465146262399</v>
+        <v>28.86605661038192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>40.13557434015851</v>
+        <v>77.09998448424361</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>43.33569260879466</v>
+        <v>83.13587656910758</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.98932153647888</v>
+        <v>60.55708146207823</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.28481471359144</v>
+        <v>53.00657743810646</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>32.99166077765381</v>
+        <v>59.5748267598899</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.53816271625912</v>
+        <v>62.54800275158149</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.85656395165502</v>
+        <v>14.38352250777649</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.04833935606611</v>
+        <v>55.50372291228646</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.25015876968149</v>
+        <v>61.20905958483598</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.30199195379954</v>
+        <v>12.80807174353808</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.2041334842427</v>
+        <v>40.33688937744714</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.52303098926979</v>
+        <v>48.91536491013372</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.31859464742336</v>
+        <v>3.667525045430498</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.63543233684444</v>
+        <v>42.25838659498746</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.20322428638751</v>
+        <v>48.48966200507041</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.03502582362196</v>
+        <v>12.17409839657214</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.56728309035639</v>
+        <v>66.33849352551346</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>37.87143880943901</v>
+        <v>76.8245474175354</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>37.36902925628939</v>
+        <v>78.18091161213113</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>41.09967488192109</v>
+        <v>86.2238976333754</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.63693922678634</v>
+        <v>91.67149735943462</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.87516035766123</v>
+        <v>22.56000809660793</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.13607626699367</v>
+        <v>75.40217319557709</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.33618973281531</v>
+        <v>83.6289632893359</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.98953304293835</v>
+        <v>56.05727796168645</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.28503188494989</v>
+        <v>38.29301271098643</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.99188242671894</v>
+        <v>46.52592358379349</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.53838492571564</v>
+        <v>53.43669717089023</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.85677405089294</v>
+        <v>9.135027702189067</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.04855956570011</v>
+        <v>45.04042032635286</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.25038027388077</v>
+        <v>55.8766021290582</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.30218957671567</v>
+        <v>12.27086883705565</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.20434227379962</v>
+        <v>38.07171132331919</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.52324116716453</v>
+        <v>50.34078413435623</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.31878928604903</v>
+        <v>5.239749364934685</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.63563850734765</v>
+        <v>38.89299752248365</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.20343200967912</v>
+        <v>48.42653250026041</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.03522623268958</v>
+        <v>9.870363108289784</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.56749415594786</v>
+        <v>59.63071463633702</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>37.87165127203626</v>
+        <v>74.62056377839497</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.3692475318571</v>
+        <v>63.84037179614731</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>41.09989762327565</v>
+        <v>74.65406212071832</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.63716254455588</v>
+        <v>85.10136779485956</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.87537159810981</v>
+        <v>16.47903749128031</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.1362976149813</v>
+        <v>64.24761217123134</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>43.33641243069432</v>
+        <v>79.20718917648452</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.9642243211079</v>
+        <v>16.2813289297863</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.58892038032975</v>
+        <v>13.46609640608179</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.84195002743667</v>
+        <v>18.41185410594602</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.86361697257368</v>
+        <v>5.504150973664029</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.88256338238948</v>
+        <v>13.66848431233078</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.37892796013291</v>
+        <v>14.79155794065537</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.49927123108758</v>
+        <v>3.443966386673797</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.75377515182442</v>
+        <v>19.76456100227913</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.99339528975135</v>
+        <v>23.67799185844482</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.27333994225761</v>
+        <v>12.17966513093882</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>34.89141559843535</v>
+        <v>17.30288023474464</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.40320530531672</v>
+        <v>19.77125014962138</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.93783593188735</v>
+        <v>11.49203681958165</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.91972604860707</v>
+        <v>7.054670430808759</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.07165236672105</v>
+        <v>15.33658171337908</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.3575406559932</v>
+        <v>12.94228031244475</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.07404220338913</v>
+        <v>13.89123570468687</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.37938906826265</v>
+        <v>18.39265174181324</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.1461908573976</v>
+        <v>2.673521601095107</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.2663588599178</v>
+        <v>4.395053163594529</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.81683643748461</v>
+        <v>8.395225447127874</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.83970088227496</v>
+        <v>-4.990500440235447</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.18675326778372</v>
+        <v>10.42274398017392</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.96421040188076</v>
+        <v>14.13750748782227</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.58891958237017</v>
+        <v>20.39147204629669</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.84195513050297</v>
+        <v>22.85617541496046</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.86360822150562</v>
+        <v>5.304422231176492</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.88256837059698</v>
+        <v>27.15884464258707</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.37893923622198</v>
+        <v>27.18364081954588</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.49926581996822</v>
+        <v>6.673909740483285</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.75378244042717</v>
+        <v>36.23717878663436</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.99340843914833</v>
+        <v>37.4769350588719</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.27334822408955</v>
+        <v>37.16612293773014</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.89142833850201</v>
+        <v>40.81372273929409</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.40322086339557</v>
+        <v>42.92124961949642</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.93783501542141</v>
+        <v>20.2029224107252</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.91973765063565</v>
+        <v>33.71173206134577</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.07166964083127</v>
+        <v>37.2932837271747</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.35753017423293</v>
+        <v>11.38241038595121</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.07404495000177</v>
+        <v>22.35078769774555</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.37939778453602</v>
+        <v>25.42796498247114</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.14618537766551</v>
+        <v>4.66267031763903</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.26636723960486</v>
+        <v>21.27454405817679</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.81685117503323</v>
+        <v>25.31437573058327</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.18676401085958</v>
+        <v>31.00321109299199</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.96471137139031</v>
+        <v>10.56514802569211</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.58941335584314</v>
+        <v>17.87473024788241</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.84244410179452</v>
+        <v>22.50303749299292</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>15.864122753343</v>
+        <v>3.743620268496873</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.88307539774797</v>
+        <v>26.72845884116817</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.37944107562982</v>
+        <v>29.48547364042711</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.49977765135833</v>
+        <v>6.426317753483406</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.75428738233452</v>
+        <v>37.63154939933619</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.99390857198848</v>
+        <v>41.29103850631779</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.27385457885118</v>
+        <v>38.22838582796436</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.89193127100728</v>
+        <v>40.70124565994431</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.4037216950431</v>
+        <v>45.63771702462861</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.93834480940115</v>
+        <v>14.65481226502891</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.92024074474239</v>
+        <v>31.92636160278355</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.0721679816148</v>
+        <v>37.57660789078335</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>19.35803259083342</v>
+        <v>6.983803759937789</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.07454007550152</v>
+        <v>19.08036763075126</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.37988807751404</v>
+        <v>24.65180500405578</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.14670162542989</v>
+        <v>2.076073119492637</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.26687587688549</v>
+        <v>19.95922949714648</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.81735459291995</v>
+        <v>27.13710863100707</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.84021232193674</v>
+        <v>0.1844222264313409</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.18727053006267</v>
+        <v>31.71421612289945</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.96490398549541</v>
+        <v>6.526111961385229</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.58961681309949</v>
+        <v>12.65217123634915</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.84264886081017</v>
+        <v>20.33811931853504</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>15.86431215927477</v>
+        <v>5.038623005778906</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.88327599112451</v>
+        <v>24.1366361486985</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.37964312461356</v>
+        <v>29.6049341333416</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.49997272120449</v>
+        <v>3.705990278640943</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.75449278697238</v>
+        <v>31.29407925991316</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.99411528578285</v>
+        <v>38.74172530049205</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.27406688489263</v>
+        <v>25.41844391568046</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.89214791693443</v>
+        <v>29.18577615089132</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.40393888030658</v>
+        <v>37.66993243498106</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.93855025995624</v>
+        <v>9.315774817956797</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.92045598634961</v>
+        <v>22.28953100506519</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.07238449702704</v>
+        <v>33.83916884833613</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.3582289364203</v>
+        <v>5.294679492990245</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.07474738680371</v>
+        <v>15.80165668387054</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>32.38009675183142</v>
+        <v>23.68443927712596</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.14689472218</v>
+        <v>3.968996252589424</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.26708029284607</v>
+        <v>17.39257829075106</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.81756052918007</v>
+        <v>26.48426793534168</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.84041115601424</v>
+        <v>-2.252589976202696</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.18747981950003</v>
+        <v>25.11370084127458</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.47659455374973</v>
+        <v>18.47593496221259</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.81358740363334</v>
+        <v>5.061136202584382</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.48911645876083</v>
+        <v>13.29313145982647</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.02828760999145</v>
+        <v>18.64088766235594</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.45384489582436</v>
+        <v>2.047548482762441</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.5419838532421</v>
+        <v>6.931742094503111</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>39.7324780843459</v>
+        <v>12.94814629304532</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.56287413054285</v>
+        <v>11.43345786533866</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.35446162493692</v>
+        <v>14.18723110827401</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.66140866137981</v>
+        <v>23.36305834582322</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.65061692548257</v>
+        <v>-0.8080861856207058</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.85182100744261</v>
+        <v>5.798451027040077</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.40638316374014</v>
+        <v>11.79978939126551</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.35038175172051</v>
+        <v>-6.588753126311868</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.77506578462807</v>
+        <v>16.2232831107697</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.06726058611824</v>
+        <v>28.23181331937275</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.60126872130097</v>
+        <v>19.53461191668325</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.29987279914667</v>
+        <v>29.5227260888199</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.83111482826737</v>
+        <v>38.00284810020193</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.17850215718568</v>
+        <v>-0.05031142309860215</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.33258836115875</v>
+        <v>12.57710436121022</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.52308325393218</v>
+        <v>24.66594644534013</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.47661122262487</v>
+        <v>37.55102935621866</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.81359917147939</v>
+        <v>32.73584405431347</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.48913273865629</v>
+        <v>38.93732985318979</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.02830675318187</v>
+        <v>43.93629856934712</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.4538474924529</v>
+        <v>13.76541701261752</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.54199909215403</v>
+        <v>38.05085093007256</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.73249904548296</v>
+        <v>40.56400604541685</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.56288062647711</v>
+        <v>17.14448263495109</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.35448151067988</v>
+        <v>31.06222116969079</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.66143446102474</v>
+        <v>37.45200746997631</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.65062874804213</v>
+        <v>9.925600361152821</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.85184686189233</v>
+        <v>33.05567567620884</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.40641531797299</v>
+        <v>37.74308565775868</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.35039704773355</v>
+        <v>8.396318180246997</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.77509405245604</v>
+        <v>46.92036590650477</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.06729472482455</v>
+        <v>55.8181782092289</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.60129826149337</v>
+        <v>59.54980785803133</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>45.29990690947574</v>
+        <v>66.47798450294391</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>46.83115176682966</v>
+        <v>73.83384045552009</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.17852235006603</v>
+        <v>22.78074056828081</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>44.33262134023514</v>
+        <v>56.10176380271506</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.52312190386898</v>
+        <v>63.28419943009013</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.47711290370694</v>
+        <v>41.03446538946682</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>33.81410705675229</v>
+        <v>31.98068767553972</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.48963712511785</v>
+        <v>36.83017566849509</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.02880901231288</v>
+        <v>45.0115677052967</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.45435881233452</v>
+        <v>7.393953815470642</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.5425035996344</v>
+        <v>35.7793840648327</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.73299878308862</v>
+        <v>40.6914969675513</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.56337415765246</v>
+        <v>12.78336568337977</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.35496765290688</v>
+        <v>28.40254009304605</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.66191574573013</v>
+        <v>37.02429374194475</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.65113575486443</v>
+        <v>7.604030462816841</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.8523461508687</v>
+        <v>32.69334431073759</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.40690936207992</v>
+        <v>40.2726364066875</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.35090131766775</v>
+        <v>7.712278359523996</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.77559123244576</v>
+        <v>48.57595416317406</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.06778704504679</v>
+        <v>59.93517541731958</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.60179650271346</v>
+        <v>60.55337477554647</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>45.30040160893563</v>
+        <v>66.04139831425127</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.83164433746776</v>
+        <v>76.5185716573092</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.17902412537222</v>
+        <v>17.22325119602042</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>44.33311620979545</v>
+        <v>55.29730566136911</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>47.52361198118037</v>
+        <v>64.73139364885057</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.47732356227903</v>
+        <v>37.40918279753893</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.81432347906284</v>
+        <v>17.68970674862382</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.4898579687241</v>
+        <v>24.1804697544724</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.02903041548512</v>
+        <v>36.23640990425727</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.45456827573275</v>
+        <v>2.234113436943549</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.54272299312098</v>
+        <v>25.82199566344932</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.73321949837661</v>
+        <v>35.58431342607926</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.56357092665002</v>
+        <v>11.60326336737814</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.35517539086094</v>
+        <v>25.73321371688826</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.6621249098754</v>
+        <v>37.86701761335019</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.65132966775078</v>
+        <v>9.109397920116582</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.85255138820803</v>
+        <v>29.54860804823921</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.40711619265215</v>
+        <v>40.27188979271358</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.35110093051813</v>
+        <v>5.028217999262612</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.77580130886972</v>
+        <v>41.73273198302698</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.06799855617092</v>
+        <v>57.41554568617602</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>41.60201392085619</v>
+        <v>45.40064014938102</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.30062343697074</v>
+        <v>53.66826813464721</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.83186674159728</v>
+        <v>69.07992397669366</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.17923462311472</v>
+        <v>10.06282217094614</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.33333663465462</v>
+        <v>43.45728356721818</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.5238337830142</v>
+        <v>59.2979565856098</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.99583025693657</v>
+        <v>11.05497846744567</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.62433168302556</v>
+        <v>12.52281080103308</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.86779287930456</v>
+        <v>19.2796697682665</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.95842464998476</v>
+        <v>0.4024532993241259</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.98169730377568</v>
+        <v>13.63360035398165</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.46790860581245</v>
+        <v>16.05786578480923</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.58263639069229</v>
+        <v>-0.3036418244060393</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.8413430941921</v>
+        <v>21.42400928845641</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.07151922167449</v>
+        <v>26.95619113720926</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.37343979478464</v>
+        <v>15.24206415906827</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.99213854642694</v>
+        <v>21.16332731186617</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.4983662055272</v>
+        <v>24.18077994562015</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.03689911172322</v>
+        <v>8.483093156889201</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.02181777420066</v>
+        <v>9.363926753134027</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.16470192684925</v>
+        <v>19.14681519473658</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.43979983494268</v>
+        <v>16.51570332998742</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.1601633618186</v>
+        <v>22.30419027397855</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.45491674235519</v>
+        <v>28.22882910735692</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>20.29271771682804</v>
+        <v>5.822332246206489</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.41727337184305</v>
+        <v>13.24309318883386</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.95649774277965</v>
+        <v>18.08105674830148</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.97515210912793</v>
+        <v>-0.001631095966896368</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.32646867712863</v>
+        <v>21.42496362666072</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>18.99581908308724</v>
+        <v>10.32875855931713</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.62433363080159</v>
+        <v>21.05624510725713</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.86780070990088</v>
+        <v>25.18469913623671</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>17.95841870467853</v>
+        <v>1.788087813524246</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.98170509863461</v>
+        <v>28.91906413182832</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.46792266928593</v>
+        <v>30.10193014121674</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>21.58263377681911</v>
+        <v>4.519308789379497</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.84135318102139</v>
+        <v>39.69189866481645</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.07153515133461</v>
+        <v>42.40183392807896</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.37345090742573</v>
+        <v>42.04759704896375</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.99215411772713</v>
+        <v>46.4540397997103</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.49838458451059</v>
+        <v>49.00687157628855</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.03690102944177</v>
+        <v>18.8019853130333</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.02183220948</v>
+        <v>37.89499698905456</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.16472201681909</v>
+        <v>42.81745132808828</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>21.43979215244119</v>
+        <v>16.74718488622708</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.16016890804978</v>
+        <v>32.75134657733875</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.45492823873118</v>
+        <v>37.09344752622403</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>20.29271509816762</v>
+        <v>9.766270333604357</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.41728461347566</v>
+        <v>32.29581000039627</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.95651532160031</v>
+        <v>37.0171739187679</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.32648227400408</v>
+        <v>44.18255298097804</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.99631580990016</v>
+        <v>7.035858152261884</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.62482315160199</v>
+        <v>18.86301972649904</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.86828543551633</v>
+        <v>25.1264811088696</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>17.95892887908684</v>
+        <v>0.5694610112469469</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.98220775767154</v>
+        <v>28.87627260028023</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.46842014796142</v>
+        <v>32.76920828850817</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.58314125182607</v>
+        <v>4.603756496698313</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.84185375641921</v>
+        <v>41.46048352429344</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.07203092455679</v>
+        <v>46.56118704081896</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.37395286339646</v>
+        <v>43.48892032711299</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.99265264951208</v>
+        <v>46.73078447026026</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.49888101976948</v>
+        <v>52.10408480011583</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.03740643743643</v>
+        <v>13.60621204347325</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.02233090963219</v>
+        <v>36.52205361081579</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.16521597026124</v>
+        <v>43.48794105664712</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>21.44029027264804</v>
+        <v>12.72222197878853</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.1606597272527</v>
+        <v>29.89964087209879</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.45541423341994</v>
+        <v>36.70543607276539</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.2932269334369</v>
+        <v>7.617105581136574</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.41778882765593</v>
+        <v>31.46486244243957</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.9570143248588</v>
+        <v>39.30043354300221</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.97566198977155</v>
+        <v>7.569009454726061</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.32698437130507</v>
+        <v>45.36447828199687</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.99650971980884</v>
+        <v>2.843721882654311</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.62502791026664</v>
+        <v>13.38472326945206</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.8684914914669</v>
+        <v>22.82880338299671</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.95911964898945</v>
+        <v>1.620158101919547</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.98240972120701</v>
+        <v>25.91905682137929</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.46862356223293</v>
+        <v>32.65726630001151</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>21.58333766389115</v>
+        <v>1.646793222968885</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.84206050932913</v>
+        <v>34.7772153305184</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.07223898214515</v>
+        <v>43.78705932885254</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>33.37416650578109</v>
+        <v>30.31621124274981</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.99287063172243</v>
+        <v>34.90522251376765</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.49909953872942</v>
+        <v>43.94430416322476</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.03761322200523</v>
+        <v>8.040834462461053</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.0225474909113</v>
+        <v>26.51523400539518</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>39.16543382146379</v>
+        <v>39.52669173347547</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.44048797840261</v>
+        <v>10.47867986707024</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.16086840442352</v>
+        <v>25.96450382348965</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>34.45562426799375</v>
+        <v>35.20866833773999</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.29342145946444</v>
+        <v>8.864601351769327</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.41799467920805</v>
+        <v>28.13067574561785</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>33.95722169061777</v>
+        <v>38.02017572287193</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.97586223196028</v>
+        <v>4.486650253723869</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.32719507502551</v>
+        <v>38.00909295181799</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.60584233361411</v>
+        <v>30.71923032943085</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.96502800756532</v>
+        <v>17.51831116280113</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.64112828586289</v>
+        <v>26.85654178989967</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.17434346676194</v>
+        <v>32.49139712596718</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.60401713920909</v>
+        <v>8.12148347988202</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.69508227944901</v>
+        <v>19.17502546127043</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>41.87565041253777</v>
+        <v>26.22220600159298</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.47975629599946</v>
+        <v>11.70772477457536</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.27299477271155</v>
+        <v>19.08502205557591</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>41.57009907952343</v>
+        <v>30.20017381797095</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.62913074608321</v>
+        <v>0.06629760555566477</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.83239489301197</v>
+        <v>12.10163097251129</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.37649325338849</v>
+        <v>19.48593055699806</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.31662443872374</v>
+        <v>-4.478315633464714</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.74340076291801</v>
+        <v>24.06248846257427</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>44.02586270048941</v>
+        <v>37.85986101707408</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>43.57998882077836</v>
+        <v>28.9698350494538</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>47.2787274255738</v>
+        <v>40.28122010052482</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.80434365215427</v>
+        <v>49.19636028000215</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.15750361840311</v>
+        <v>2.87936311425938</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>46.31268998775406</v>
+        <v>21.69166541543766</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>49.49389385123014</v>
+        <v>35.14426181214344</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.60586183701864</v>
+        <v>51.81097768449257</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.96504266120765</v>
+        <v>47.39123910402643</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.64114745189102</v>
+        <v>54.65483554812207</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.17436548526624</v>
+        <v>59.83142867029775</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.60402262469051</v>
+        <v>21.81805550374856</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.69510040612231</v>
+        <v>52.5460560100876</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.87567424292098</v>
+        <v>55.92030194453099</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.4797653505393</v>
+        <v>18.80323697932349</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.27301721379907</v>
+        <v>37.54380902153682</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.57012741645505</v>
+        <v>45.72243266893688</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.62914518467223</v>
+        <v>12.34918273142538</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.83242336051501</v>
+        <v>41.12801980298548</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.37652800154763</v>
+        <v>47.05203144593364</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>31.31664234112596</v>
+        <v>12.05511973028019</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>40.74343163452765</v>
+        <v>56.52002166715332</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.02589942514324</v>
+        <v>67.05457472841138</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.58002099501378</v>
+        <v>70.75353118214423</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>47.27876416949125</v>
+        <v>78.96501321394635</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.80438321395508</v>
+        <v>86.64783133256526</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.1575264509878</v>
+        <v>27.26471258354053</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.31272560235656</v>
+        <v>67.05209432353689</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>49.49393511939636</v>
+        <v>75.43676970164401</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.60635910410357</v>
+        <v>55.73430897478775</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.96554609260834</v>
+        <v>47.10873968153857</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>39.64164738262009</v>
+        <v>53.02809054672034</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>41.17486329337856</v>
+        <v>61.37869704077724</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.60452950366135</v>
+        <v>15.89017936011473</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>38.69560046490525</v>
+        <v>50.77951568661481</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.48025474071688</v>
+        <v>14.76936702870239</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.27349920782898</v>
+        <v>35.25558092563958</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.57060456036236</v>
+        <v>45.63542090590244</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.62964793655507</v>
+        <v>10.41353872923657</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.83291838681892</v>
+        <v>41.19728698042195</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.37701779078967</v>
+        <v>49.98976199327359</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.3171423580598</v>
+        <v>11.7478326672362</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.74392455413192</v>
+        <v>58.59467019954761</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.02638749226527</v>
+        <v>71.55951162668683</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>43.58051494408849</v>
+        <v>72.17445022428339</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>47.27925457568459</v>
+        <v>78.95335024088874</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>48.80487149566885</v>
+        <v>89.74757536220019</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.158023945396</v>
+        <v>22.10029518026244</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>46.31321618550714</v>
+        <v>66.70003500685672</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>49.49442091730266</v>
+        <v>77.31106754461712</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.60657117134164</v>
+        <v>51.4803333941438</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.96576391587843</v>
+        <v>32.04863463302971</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>39.64186962706871</v>
+        <v>39.66634922796183</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.17508609436724</v>
+        <v>52.01328925148559</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.60474036551899</v>
+        <v>10.10142017060898</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.69582126237732</v>
+        <v>40.05105775340095</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.87639165371267</v>
+        <v>50.79756313946322</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.48045270178713</v>
+        <v>13.36782447144705</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.27370814216603</v>
+        <v>32.25613391646689</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.57081491555059</v>
+        <v>46.26997699715022</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.62984310856875</v>
+        <v>11.60372379108498</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.83312488818534</v>
+        <v>37.60951857414008</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>41.37722587956196</v>
+        <v>49.68016447124154</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.31734320737234</v>
+        <v>8.760350018175959</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.74413587185584</v>
+        <v>51.33163002060846</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.02660023931975</v>
+        <v>68.74086672199797</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>43.58073358829236</v>
+        <v>56.59536431375236</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.27947762954808</v>
+        <v>66.20741961431756</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>48.80509512287552</v>
+        <v>82.05604057315972</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.1582356677377</v>
+        <v>14.65605321871002</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>46.31343783947761</v>
+        <v>54.4224710983336</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.49464394361786</v>
+        <v>71.58322929868805</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>7.338993709175963</v>
+        <v>7.568323394230905</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.84063083819829</v>
+        <v>8.740390792842451</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>20.0463378130679</v>
+        <v>15.43203385650253</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>6.126527809036265</v>
+        <v>-4.056359375497234</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>16.01607766637223</v>
+        <v>9.918227166824469</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.46267486257695</v>
+        <v>11.49451346712792</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.670920777452071</v>
+        <v>-1.215469645232925</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>18.80654676215112</v>
+        <v>20.07285354172635</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>21.99953341850033</v>
+        <v>24.82776988592179</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.27925191698649</v>
+        <v>14.41082417092349</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.84714141447082</v>
+        <v>19.18223324908911</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.3410325955028</v>
+        <v>19.35256979692059</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>15.05501813820313</v>
+        <v>8.182769056166936</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>23.92347467298309</v>
+        <v>7.877171543829835</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>27.02700165753495</v>
+        <v>17.43541488827276</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>10.00477918881955</v>
+        <v>20.54735909447121</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>19.60138205417102</v>
+        <v>28.28442432986356</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>22.85972929528851</v>
+        <v>33.78966026197153</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>8.690205678220265</v>
+        <v>7.671714011382196</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>18.68414291630179</v>
+        <v>18.73685356948585</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.1852314703339</v>
+        <v>22.35870913842965</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>12.29185772732969</v>
+        <v>7.363603088355863</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>21.52298840016057</v>
+        <v>31.02817889589298</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>7.338963030752659</v>
+        <v>2.757317710917963</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.84061306916079</v>
+        <v>12.67303753307644</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>20.04632588009397</v>
+        <v>16.77786413603645</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>6.126502099419282</v>
+        <v>-6.823549566276338</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>16.01606547027154</v>
+        <v>20.4563806337979</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.46266888907516</v>
+        <v>20.7293879549201</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>9.670898263852216</v>
+        <v>-0.962213709025999</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.80653674086764</v>
+        <v>33.11138370630107</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>21.99952919551575</v>
+        <v>35.07543774886466</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.27924289212628</v>
+        <v>35.46383477531018</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.84713677110076</v>
+        <v>38.66186268851021</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.34103073484702</v>
+        <v>38.35229475551202</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>15.05500009129166</v>
+        <v>13.23667081627309</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.92346895077041</v>
+        <v>30.37720567353449</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>27.02700153574942</v>
+        <v>34.98041310820003</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>10.00475234316487</v>
+        <v>17.89338672210861</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>19.60136822788135</v>
+        <v>35.33779133835444</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>22.85972137570532</v>
+        <v>39.27712047027123</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>8.690183645929777</v>
+        <v>8.646867331030055</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>18.68413452051893</v>
+        <v>34.23959730107592</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>22.18522936939004</v>
+        <v>37.64817637441709</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>12.29183896431096</v>
+        <v>12.13775357567318</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.52298224197833</v>
+        <v>49.73182880465069</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>7.339466156392525</v>
+        <v>-1.606921409813449</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.84110910000257</v>
+        <v>9.244909551906634</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.04681719295273</v>
+        <v>15.43902697013297</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>6.127018768558779</v>
+        <v>-9.224902107859148</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.01657474096538</v>
+        <v>19.07832068841038</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>19.46317306199085</v>
+        <v>21.96639273148296</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>9.671412268940969</v>
+        <v>-2.186981614151332</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.80704395408426</v>
+        <v>33.37419043896324</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>22.00003168394467</v>
+        <v>37.67683367110837</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>21.2797514172534</v>
+        <v>35.53857096841736</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>24.84764192734008</v>
+        <v>37.5758072501919</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.3415338320827</v>
+        <v>40.0014324138717</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>15.05551197807301</v>
+        <v>6.830628211731526</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.92397422738947</v>
+        <v>27.5615991929748</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.02750214799642</v>
+        <v>34.11989142463844</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>10.0052566512567</v>
+        <v>12.91839288605474</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>19.60186534349656</v>
+        <v>31.36497578721839</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.86021374184375</v>
+        <v>37.71573063258353</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>8.690701754464087</v>
+        <v>5.456972202865391</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.68464512222971</v>
+        <v>32.20676492313024</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>22.18573484033591</v>
+        <v>38.62358306869376</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>12.29235436883126</v>
+        <v>10.35653655565935</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>21.52349075482617</v>
+        <v>49.52782110947933</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>7.339650474191739</v>
+        <v>-2.796946816082535</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>16.84130417940843</v>
+        <v>6.927072170893357</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>20.04701352947797</v>
+        <v>16.21724714723718</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>6.127199761136538</v>
+        <v>-5.506235327938295</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.01676683845844</v>
+        <v>18.9977408195833</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>19.46336656566763</v>
+        <v>24.63315233343556</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>9.671598836590812</v>
+        <v>-2.170662206071196</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>18.807240780873</v>
+        <v>29.89456248830678</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>22.00022977490178</v>
+        <v>38.00015124367616</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>21.27995496188366</v>
+        <v>26.15808928900123</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.84784977107282</v>
+        <v>29.53559105403022</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.34174221119633</v>
+        <v>35.47445972207288</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>15.05570876502384</v>
+        <v>4.709612095595364</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>23.92418072741981</v>
+        <v>21.20201295025848</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.0277098831838</v>
+        <v>33.76394415001769</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>10.00544495371042</v>
+        <v>12.4682154624469</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>19.60206453516665</v>
+        <v>29.36367048118257</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>22.86041425001625</v>
+        <v>38.07291526489621</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>8.69088669947171</v>
+        <v>8.196233265480945</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>18.68484130902605</v>
+        <v>30.55007709177301</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>22.18593249593721</v>
+        <v>38.93202746838028</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>12.292544961038</v>
+        <v>9.066425537939015</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>21.52369173147379</v>
+        <v>44.18081522791786</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>24.76655893064857</v>
+        <v>38.94487303474384</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.10404014329365</v>
+        <v>26.75384617128356</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>27.72957949757646</v>
+        <v>35.11381621632987</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.25096122816582</v>
+        <v>36.83809279563923</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>17.85318179896964</v>
+        <v>16.97534029593809</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>26.83011400169588</v>
+        <v>28.5020205661921</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.97281523065445</v>
+        <v>34.94692268788182</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>17.52763596148702</v>
+        <v>18.2010305159327</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>27.20283119035845</v>
+        <v>28.35427829202388</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>30.46210646046752</v>
+        <v>38.48778616232477</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>16.50694418279479</v>
+        <v>3.910631244975495</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>26.58550974781829</v>
+        <v>20.35201920433909</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>30.09003196422687</v>
+        <v>25.89228561923642</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>20.12109946068502</v>
+        <v>4.943443816737076</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.43324774588419</v>
+        <v>36.44785052036471</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>32.6785360914882</v>
+        <v>48.33939765448636</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>32.21236419075385</v>
+        <v>39.60818715903832</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>35.86162319207456</v>
+        <v>50.49078645913866</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.37428703342685</v>
+        <v>55.25245795837321</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.89510256848022</v>
+        <v>14.5170344739444</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>34.94088305666187</v>
+        <v>35.19548130867256</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>38.08295189789483</v>
+        <v>46.65629083720827</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.76655863786204</v>
+        <v>55.98237196726382</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>24.10403501614589</v>
+        <v>52.06366753554622</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>27.72957880610605</v>
+        <v>58.32646955575649</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.25096336509979</v>
+        <v>59.56113851619196</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>17.85316767273851</v>
+        <v>26.545379047155</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>26.83011232595137</v>
+        <v>56.9836755727448</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.97281920767945</v>
+        <v>59.62201863421058</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>17.52762657035023</v>
+        <v>22.29455369388851</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>16.50693993683393</v>
+        <v>13.11941050042367</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>26.58551931740904</v>
+        <v>45.70194516156002</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>30.0900477690991</v>
+        <v>49.68871139079181</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>20.12109854854459</v>
+        <v>17.9681349772749</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.43325960704943</v>
+        <v>64.72238175152225</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>32.67855376174545</v>
+        <v>73.36743276527082</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>32.21237733084116</v>
+        <v>76.61663077631931</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>35.86164082717212</v>
+        <v>84.44294445959198</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>37.37430746063465</v>
+        <v>87.95254588305471</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>25.89510652942705</v>
+        <v>34.65450967884982</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>34.9408996178521</v>
+        <v>75.53352640841663</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>38.08297405891267</v>
+        <v>81.77972433849169</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>24.76706239562519</v>
+        <v>58.46013078091161</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>24.10454479002607</v>
+        <v>50.56469204455553</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>27.73008513492357</v>
+        <v>55.49641841122897</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.25146760775289</v>
+        <v>59.80625114227669</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>17.85368080529519</v>
+        <v>19.53548465993768</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>26.83061873438138</v>
+        <v>53.89155019308836</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.97332093362688</v>
+        <v>58.8049574203815</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.52812156427553</v>
+        <v>17.57778566528677</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>27.20332268614069</v>
+        <v>40.13993730648809</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>30.46259903291834</v>
+        <v>49.51188231833666</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>16.50744838459093</v>
+        <v>10.4286126533861</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>26.58602014715333</v>
+        <v>44.84548129670844</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>30.09054344439854</v>
+        <v>51.59454794681329</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>20.12160428753051</v>
+        <v>16.76639089595796</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.43375834770567</v>
+        <v>65.68837959496793</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>32.67904772740119</v>
+        <v>76.7065153203788</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>32.21287703792855</v>
+        <v>77.08003077120742</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>35.86213704519927</v>
+        <v>83.49858102773715</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>37.37480159271459</v>
+        <v>90.02055137864039</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.89560969948776</v>
+        <v>28.69356476422684</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>34.94139596712344</v>
+        <v>74.13718630988504</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.08346570512251</v>
+        <v>82.50893005206845</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>24.76726469453729</v>
+        <v>56.11614498431621</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>24.10475271508334</v>
+        <v>38.14291074275951</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>27.73029744069708</v>
+        <v>44.7360895755734</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>29.25168046881433</v>
+        <v>52.87532901969132</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.85388186750167</v>
+        <v>16.0377958912946</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>26.83082965233563</v>
+        <v>45.6282586084848</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>29.97353313337452</v>
+        <v>55.51716317376099</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>17.5283105361374</v>
+        <v>18.67899889859999</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>27.20352255250476</v>
+        <v>39.79171210654235</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>30.46280027924444</v>
+        <v>52.69608990090771</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>16.50763437430779</v>
+        <v>13.86562689181537</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>26.58621738582943</v>
+        <v>43.70415615561686</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>30.09074222510998</v>
+        <v>53.62158228676222</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>20.12179589629377</v>
+        <v>16.33156514545363</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>29.43396035095968</v>
+        <v>61.20639308081601</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>32.67925111868717</v>
+        <v>76.54222385259288</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>32.21308619840997</v>
+        <v>64.95884678851925</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>35.86235057521426</v>
+        <v>74.12568577465564</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>37.37501569410077</v>
+        <v>85.50823466319437</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>25.89581203191814</v>
+        <v>24.33859543463973</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>34.94160815326993</v>
+        <v>65.14138333337254</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>38.08367922862647</v>
+        <v>80.02853276939311</v>
       </c>
     </row>
   </sheetData>
